--- a/Doc/导出配置/Skill.xlsx
+++ b/Doc/导出配置/Skill.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\MergeGame\Doc\导出配置\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\PokerGame\Doc\导出配置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BE54D9-82FB-4BE7-B24A-F8CE7CD55624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB87B6F5-700D-4BBC-ACC8-4D458ED1B442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cfg_BattleProperty" sheetId="4" r:id="rId1"/>
-    <sheet name="Cfg_ActiveSkill" sheetId="1" r:id="rId2"/>
-    <sheet name="Cfg_Impact" sheetId="2" r:id="rId3"/>
-    <sheet name="Cfg_Buff" sheetId="3" r:id="rId4"/>
+    <sheet name="Cfg_ActiveSkill" sheetId="1" r:id="rId1"/>
+    <sheet name="Cfg_Impact" sheetId="2" r:id="rId2"/>
+    <sheet name="Cfg_Buff" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,163 +32,6 @@
     <author>毛俭铭</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{99A22E3B-6610-4544-8B3D-6EF67824740F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>【字段名】：
-id
-【表头】：
-c|int
-【数据类型】：
-字符
-【为空是否导出】：
-false</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{9EE0E3BC-1BD0-4872-AC36-970BA8B56980}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>【字段名】：
-atkMin
-【表头】：
-c|int
-【数据类型】：
-字符
-【为空是否导出】：
-false</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{9681ED16-B17F-450B-997F-C3FBC3BE0FA9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>【字段名】：
-atkMax
-【表头】：
-c|int
-【数据类型】：
-字符
-【为空是否导出】：
-false</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4C0534B8-8137-4D0D-813D-45896AA060BF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>【字段名】：
-def
-【表头】：
-c|int
-【数据类型】：
-字符
-【为空是否导出】：
-false</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{84133BA6-799D-4C26-89C1-DDC50E1CC371}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>【字段名】：
-hp
-【表头】：
-c|int
-【数据类型】：
-字符
-【为空是否导出】：
-false</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{A906BA5C-FA46-4B77-88FE-F011667A671E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>【字段名】：
-mp
-【表头】：
-c|int
-【数据类型】：
-字符
-【为空是否导出】：
-false</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{F69B441C-127C-4F38-87C2-303BDF995788}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>【字段名】：
-otherPropertys
-【表头】：
-c|int[,]
-【数据类型】：
-字符
-【为空是否导出】：
-false</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>毛俭铭</author>
-  </authors>
-  <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F12E5833-CCA2-4CCD-93D8-A315C70691E6}">
       <text>
         <r>
@@ -471,7 +313,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>毛俭铭</author>
@@ -671,7 +513,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>毛俭铭</author>
@@ -800,7 +642,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -857,24 +699,6 @@
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小攻击</t>
-  </si>
-  <si>
-    <t>最大攻击</t>
-  </si>
-  <si>
-    <t>防</t>
-  </si>
-  <si>
-    <t>血</t>
-  </si>
-  <si>
-    <t>蓝</t>
-  </si>
-  <si>
-    <t>其他属性</t>
   </si>
   <si>
     <t>触发时机</t>
@@ -1006,7 +830,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="31">
     <dxf>
       <font>
         <b val="0"/>
@@ -1493,159 +1317,6 @@
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1723,30 +1394,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{33507A25-AA12-48D0-A786-55AFE8A0506E}" name="Cfg_BattleProperty" displayName="Cfg_BattleProperty" ref="A1:G2" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A1:G2" xr:uid="{33507A25-AA12-48D0-A786-55AFE8A0506E}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0AF34924-B18A-4ED0-BD3A-015EB46010B0}" name="id" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{320B51E5-5881-45E4-8FE9-54C090745179}" name="最小攻击" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{44F53851-5E51-4CDF-B1B8-BC2678E06815}" name="最大攻击" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{5B881FAF-D8C4-4D48-B6D5-5D354DC69BA3}" name="防" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{89AA92DA-07CA-44C4-B6AE-20A67ADEC713}" name="血" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{257E997B-4AF9-49F9-88DF-39CF3CC0D4EA}" name="蓝" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{9A8E7A37-AC03-4FE1-90D4-916423D937BF}" name="其他属性" dataDxfId="31"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{91CD7017-5504-41E5-A7F4-6167021CCECC}" name="Cfg_ActiveSkill" displayName="Cfg_ActiveSkill" ref="A1:L2" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:L2" xr:uid="{91CD7017-5504-41E5-A7F4-6167021CCECC}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -1780,7 +1427,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{53176B2C-DCF7-4F9A-A5E6-EBAF85BAC60E}" name="Cfg_Impact" displayName="Cfg_Impact" ref="A1:H2" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:H2" xr:uid="{53176B2C-DCF7-4F9A-A5E6-EBAF85BAC60E}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -1806,7 +1453,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1EA0BE20-EBAC-4425-9B4D-284F547F86C4}" name="Cfg_Buff" displayName="Cfg_Buff" ref="A1:E2" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E2" xr:uid="{1EA0BE20-EBAC-4425-9B4D-284F547F86C4}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -2088,77 +1735,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E81E46-9DC7-4DC4-BE5B-88C5562053AB}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>95</v>
-      </c>
-      <c r="C2" s="1">
-        <v>105</v>
-      </c>
-      <c r="D2" s="1">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F2" s="1">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2172,16 +1752,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -2210,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -2261,11 +1841,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9172A2-7D5C-459A-A546-FC7628373FC0}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2285,16 +1865,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -2311,13 +1891,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -2350,7 +1930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CE9ABB-7608-4F88-BEE8-C8D05AF740CE}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2371,13 +1951,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2385,10 +1965,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1">
         <v>3</v>
